--- a/Excel/表3储层岩石学特征.xlsx
+++ b/Excel/表3储层岩石学特征.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA4FF49-6C55-4AFA-898B-201BAF3F1699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256D2671-CF47-4488-BA0A-30793E4DFEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1434,15 +1434,27 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1452,18 +1464,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1494,41 +1494,62 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1536,53 +1557,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1623,6 +1623,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1687,6 +1692,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>进汞曲线</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3825,16 +3833,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>597878</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>32656</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171158</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139336</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4356,85 +4364,85 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="51" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48">
         <v>5</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48">
         <v>394</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="51"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
@@ -4447,7 +4455,7 @@
       <c r="E5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="47"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="22" t="s">
         <v>24</v>
       </c>
@@ -4937,21 +4945,21 @@
       <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="48"/>
+      <c r="D21" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="50" t="s">
+      <c r="E21" s="48"/>
+      <c r="F21" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="47"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="22" t="s">
         <v>91</v>
       </c>
@@ -4963,19 +4971,19 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47" t="s">
+      <c r="C22" s="48"/>
+      <c r="D22" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47" t="s">
+      <c r="E22" s="48"/>
+      <c r="F22" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="47"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="22" t="s">
         <v>97</v>
       </c>
@@ -4987,19 +4995,19 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="45">
+      <c r="A23" s="53"/>
+      <c r="B23" s="51">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45">
+      <c r="E23" s="51"/>
+      <c r="F23" s="51">
         <v>0.52300000000000002</v>
       </c>
-      <c r="G23" s="45"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="26">
         <v>0.42659999999999998</v>
       </c>
@@ -5011,39 +5019,23 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
@@ -5056,6 +5048,22 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5075,82 +5083,82 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="51" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48">
         <v>6</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48">
         <v>394</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="51"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
@@ -5659,25 +5667,25 @@
       <c r="A21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="48"/>
+      <c r="D21" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47" t="s">
+      <c r="E21" s="48"/>
+      <c r="F21" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47" t="s">
+      <c r="G21" s="48"/>
+      <c r="H21" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="48" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5685,30 +5693,30 @@
       <c r="A22" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47" t="s">
+      <c r="C23" s="48"/>
+      <c r="D23" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47" t="s">
+      <c r="E23" s="48"/>
+      <c r="F23" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="47"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="22" t="s">
         <v>97</v>
       </c>
@@ -5721,18 +5729,18 @@
     </row>
     <row r="24" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
-      <c r="B24" s="45">
+      <c r="B24" s="51">
         <v>0</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45">
+      <c r="C24" s="51"/>
+      <c r="D24" s="51">
         <v>0</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45">
+      <c r="E24" s="51"/>
+      <c r="F24" s="51">
         <v>0</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="26">
         <v>0.93600000000000005</v>
       </c>
@@ -5744,37 +5752,23 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="H21:H22"/>
@@ -5789,6 +5783,20 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6056,146 +6064,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="65">
         <v>3</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="76" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="76"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="66">
+      <c r="E5" s="66"/>
+      <c r="F5" s="65">
         <v>24.2</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="67" t="s">
+      <c r="G5" s="65"/>
+      <c r="H5" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68">
+      <c r="I5" s="66"/>
+      <c r="J5" s="76">
         <v>41143</v>
       </c>
-      <c r="K5" s="68"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="66">
+      <c r="E6" s="66"/>
+      <c r="F6" s="65">
         <v>134.316</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
@@ -6851,18 +6859,6 @@
     <row r="39" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
@@ -6874,6 +6870,18 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6896,925 +6904,1011 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="82"/>
     </row>
     <row r="3" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="65">
         <v>4</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="66">
+      <c r="E5" s="66"/>
+      <c r="F5" s="65">
         <v>13.53</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="67" t="s">
+      <c r="G5" s="65"/>
+      <c r="H5" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68">
+      <c r="I5" s="66"/>
+      <c r="J5" s="76">
         <v>41143</v>
       </c>
-      <c r="K5" s="68"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="66">
+      <c r="E6" s="66"/>
+      <c r="F6" s="65">
         <v>3.6219999999999999</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="88" t="s">
+      <c r="F8" s="88"/>
+      <c r="G8" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="88" t="s">
+      <c r="H8" s="88"/>
+      <c r="I8" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85" t="s">
+      <c r="J8" s="88"/>
+      <c r="K8" s="89" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="86"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77">
+      <c r="A10" s="84">
         <v>1</v>
       </c>
-      <c r="B10" s="77"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="9">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D10" s="9">
         <v>210.5823</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="85">
         <v>0</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77">
+      <c r="A11" s="84">
         <v>2</v>
       </c>
-      <c r="B11" s="77"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="9">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D11" s="9">
         <v>97.96</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="85">
         <v>0</v>
       </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77">
+      <c r="A12" s="84">
         <v>3</v>
       </c>
-      <c r="B12" s="77"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="9">
         <v>1.09E-2</v>
       </c>
       <c r="D12" s="9">
         <v>67.197900000000004</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="85">
         <v>0</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77">
+      <c r="A13" s="84">
         <v>4</v>
       </c>
-      <c r="B13" s="77"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="9">
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="D13" s="9">
         <v>48.639499999999998</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="85">
         <v>0</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
+      <c r="A14" s="84">
         <v>5</v>
       </c>
-      <c r="B14" s="77"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D14" s="9">
         <v>33.430900000000001</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="85">
         <v>0</v>
       </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77">
+      <c r="A15" s="84">
         <v>6</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="9">
         <v>3.09E-2</v>
       </c>
       <c r="D15" s="9">
         <v>23.817499999999999</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="85">
         <v>0</v>
       </c>
-      <c r="F15" s="78"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77">
+      <c r="A16" s="84">
         <v>7</v>
       </c>
-      <c r="B16" s="77"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="9">
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="D16" s="9">
         <v>16.7349</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="85">
         <v>0</v>
       </c>
-      <c r="F16" s="78"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77">
+      <c r="A17" s="84">
         <v>8</v>
       </c>
-      <c r="B17" s="77"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="9">
         <v>6.2600000000000003E-2</v>
       </c>
       <c r="D17" s="9">
         <v>11.7425</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="85">
         <v>0.34160000000000001</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
+      <c r="A18" s="84">
         <v>9</v>
       </c>
-      <c r="B18" s="77"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="9">
         <v>8.3900000000000002E-2</v>
       </c>
       <c r="D18" s="9">
         <v>8.7698</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="85">
         <v>0.95820000000000005</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
+      <c r="A19" s="84">
         <v>10</v>
       </c>
-      <c r="B19" s="77"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="9">
         <v>0.10680000000000001</v>
       </c>
       <c r="D19" s="9">
         <v>6.8837999999999999</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="85">
         <v>2.0160999999999998</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77">
+      <c r="A20" s="84">
         <v>11</v>
       </c>
-      <c r="B20" s="77"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="9">
         <v>0.13769999999999999</v>
       </c>
       <c r="D20" s="9">
         <v>5.3410000000000002</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="85">
         <v>4.5359999999999996</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78">
+      <c r="F20" s="85"/>
+      <c r="G20" s="85">
         <v>99.958500000000001</v>
       </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78">
+      <c r="H20" s="85"/>
+      <c r="I20" s="85">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="J20" s="78"/>
+      <c r="J20" s="85"/>
       <c r="K20" s="12">
         <v>93.292299999999997</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
+      <c r="A21" s="84">
         <v>12</v>
       </c>
-      <c r="B21" s="77"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="9">
         <v>0.23630000000000001</v>
       </c>
       <c r="D21" s="9">
         <v>3.1116999999999999</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="85">
         <v>8.5861000000000001</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78">
+      <c r="F21" s="85"/>
+      <c r="G21" s="85">
         <v>70.318600000000004</v>
       </c>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78">
+      <c r="H21" s="85"/>
+      <c r="I21" s="85">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="J21" s="78"/>
+      <c r="J21" s="85"/>
       <c r="K21" s="12">
         <v>94.080299999999994</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77">
+      <c r="A22" s="84">
         <v>13</v>
       </c>
-      <c r="B22" s="77"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="9">
         <v>0.34379999999999999</v>
       </c>
       <c r="D22" s="9">
         <v>2.1391</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="85">
         <v>16.319600000000001</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78">
+      <c r="F22" s="85"/>
+      <c r="G22" s="85">
         <v>49.610599999999998</v>
       </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78">
+      <c r="H22" s="85"/>
+      <c r="I22" s="85">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="J22" s="78"/>
+      <c r="J22" s="85"/>
       <c r="K22" s="12">
         <v>94.080299999999994</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
+      <c r="A23" s="84">
         <v>14</v>
       </c>
-      <c r="B23" s="77"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="9">
         <v>0.49349999999999999</v>
       </c>
       <c r="D23" s="9">
         <v>1.4902</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="85">
         <v>27.081499999999998</v>
       </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78">
+      <c r="F23" s="85"/>
+      <c r="G23" s="85">
         <v>34.981099999999998</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78">
+      <c r="H23" s="85"/>
+      <c r="I23" s="85">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J23" s="78"/>
+      <c r="J23" s="85"/>
       <c r="K23" s="12">
         <v>94.080299999999994</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77">
+      <c r="A24" s="84">
         <v>15</v>
       </c>
-      <c r="B24" s="77"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="9">
         <v>0.71540000000000004</v>
       </c>
       <c r="D24" s="9">
         <v>1.028</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="85">
         <v>39.197600000000001</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78">
+      <c r="F24" s="85"/>
+      <c r="G24" s="85">
         <v>24.6172</v>
       </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78">
+      <c r="H24" s="85"/>
+      <c r="I24" s="85">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="J24" s="78"/>
+      <c r="J24" s="85"/>
       <c r="K24" s="12">
         <v>94.080299999999994</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77">
+      <c r="A25" s="84">
         <v>16</v>
       </c>
-      <c r="B25" s="77"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="9">
         <v>1.0222</v>
       </c>
       <c r="D25" s="9">
         <v>0.71940000000000004</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="85">
         <v>48.812399999999997</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78">
+      <c r="F25" s="85"/>
+      <c r="G25" s="85">
         <v>17.328499999999998</v>
       </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78">
+      <c r="H25" s="85"/>
+      <c r="I25" s="85">
         <v>4.24E-2</v>
       </c>
-      <c r="J25" s="78"/>
+      <c r="J25" s="85"/>
       <c r="K25" s="12">
         <v>93.7864</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77">
+      <c r="A26" s="84">
         <v>17</v>
       </c>
-      <c r="B26" s="77"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="9">
         <v>1.4581</v>
       </c>
       <c r="D26" s="9">
         <v>0.50429999999999997</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="85">
         <v>56.814799999999998</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78">
+      <c r="F26" s="85"/>
+      <c r="G26" s="85">
         <v>12.205500000000001</v>
       </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78">
+      <c r="H26" s="85"/>
+      <c r="I26" s="85">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="J26" s="78"/>
+      <c r="J26" s="85"/>
       <c r="K26" s="12">
         <v>93.288200000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77">
+      <c r="A27" s="84">
         <v>18</v>
       </c>
-      <c r="B27" s="77"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="9">
         <v>2.0951</v>
       </c>
       <c r="D27" s="9">
         <v>0.35099999999999998</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="85">
         <v>64.286299999999997</v>
       </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78">
+      <c r="F27" s="85"/>
+      <c r="G27" s="85">
         <v>8.5958000000000006</v>
       </c>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78">
+      <c r="H27" s="85"/>
+      <c r="I27" s="85">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="J27" s="78"/>
+      <c r="J27" s="85"/>
       <c r="K27" s="12">
         <v>92.676599999999993</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77">
+      <c r="A28" s="84">
         <v>19</v>
       </c>
-      <c r="B28" s="77"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="9">
         <v>2.9752000000000001</v>
       </c>
       <c r="D28" s="9">
         <v>0.2472</v>
       </c>
-      <c r="E28" s="78">
+      <c r="E28" s="85">
         <v>70.7667</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78">
+      <c r="F28" s="85"/>
+      <c r="G28" s="85">
         <v>6.0758999999999999</v>
       </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78">
+      <c r="H28" s="85"/>
+      <c r="I28" s="85">
         <v>0.121</v>
       </c>
-      <c r="J28" s="78"/>
+      <c r="J28" s="85"/>
       <c r="K28" s="12">
         <v>91.899600000000007</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77">
+      <c r="A29" s="84">
         <v>20</v>
       </c>
-      <c r="B29" s="77"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="9">
         <v>4.2237</v>
       </c>
       <c r="D29" s="9">
         <v>0.1741</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="85">
         <v>76.165400000000005</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78">
+      <c r="F29" s="85"/>
+      <c r="G29" s="85">
         <v>4.2877000000000001</v>
       </c>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78">
+      <c r="H29" s="85"/>
+      <c r="I29" s="85">
         <v>0.17150000000000001</v>
       </c>
-      <c r="J29" s="78"/>
+      <c r="J29" s="85"/>
       <c r="K29" s="12">
         <v>90.984999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77">
+      <c r="A30" s="84">
         <v>21</v>
       </c>
-      <c r="B30" s="77"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="9">
         <v>6.0103999999999997</v>
       </c>
       <c r="D30" s="9">
         <v>0.12239999999999999</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="85">
         <v>80.558300000000003</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78">
+      <c r="F30" s="85"/>
+      <c r="G30" s="85">
         <v>3.0209000000000001</v>
       </c>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78">
+      <c r="H30" s="85"/>
+      <c r="I30" s="85">
         <v>0.24340000000000001</v>
       </c>
-      <c r="J30" s="78"/>
+      <c r="J30" s="85"/>
       <c r="K30" s="12">
         <v>89.890500000000003</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77">
+      <c r="A31" s="84">
         <v>22</v>
       </c>
-      <c r="B31" s="77"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="9">
         <v>8.5493000000000006</v>
       </c>
       <c r="D31" s="9">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E31" s="78">
+      <c r="E31" s="85">
         <v>84.144400000000005</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78">
+      <c r="F31" s="85"/>
+      <c r="G31" s="85">
         <v>2.1324000000000001</v>
       </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78">
+      <c r="H31" s="85"/>
+      <c r="I31" s="85">
         <v>0.34489999999999998</v>
       </c>
-      <c r="J31" s="78"/>
+      <c r="J31" s="85"/>
       <c r="K31" s="12">
         <v>88.604500000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77">
+      <c r="A32" s="84">
         <v>23</v>
       </c>
-      <c r="B32" s="77"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="9">
         <v>12.160299999999999</v>
       </c>
       <c r="D32" s="9">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="E32" s="78">
+      <c r="E32" s="85">
         <v>87.006200000000007</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78">
+      <c r="F32" s="85"/>
+      <c r="G32" s="85">
         <v>1.5168999999999999</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78">
+      <c r="H32" s="85"/>
+      <c r="I32" s="85">
         <v>0.48480000000000001</v>
       </c>
-      <c r="J32" s="78"/>
+      <c r="J32" s="85"/>
       <c r="K32" s="12">
         <v>87.131600000000006</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77">
+      <c r="A33" s="84">
         <v>24</v>
       </c>
-      <c r="B33" s="77"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="9">
         <v>17.273099999999999</v>
       </c>
       <c r="D33" s="9">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="E33" s="78">
+      <c r="E33" s="85">
         <v>89.270099999999999</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78">
+      <c r="F33" s="85"/>
+      <c r="G33" s="85">
         <v>1.0650999999999999</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78">
+      <c r="H33" s="85"/>
+      <c r="I33" s="85">
         <v>0.6905</v>
       </c>
-      <c r="J33" s="78"/>
+      <c r="J33" s="85"/>
       <c r="K33" s="12">
         <v>85.462400000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77">
+      <c r="A34" s="84">
         <v>25</v>
       </c>
-      <c r="B34" s="77"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="9">
         <v>24.534700000000001</v>
       </c>
       <c r="D34" s="9">
         <v>0.03</v>
       </c>
-      <c r="E34" s="78">
+      <c r="E34" s="85">
         <v>91.031300000000002</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78">
+      <c r="F34" s="85"/>
+      <c r="G34" s="85">
         <v>0.76039999999999996</v>
       </c>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78">
+      <c r="H34" s="85"/>
+      <c r="I34" s="85">
         <v>0.96719999999999995</v>
       </c>
-      <c r="J34" s="78"/>
+      <c r="J34" s="85"/>
       <c r="K34" s="12">
         <v>83.626900000000006</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77">
+      <c r="A35" s="84">
         <v>26</v>
       </c>
-      <c r="B35" s="77"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="9">
         <v>34.8474</v>
       </c>
       <c r="D35" s="9">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="85">
         <v>92.260599999999997</v>
       </c>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78">
+      <c r="F35" s="85"/>
+      <c r="G35" s="85">
         <v>0.53690000000000004</v>
       </c>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78">
+      <c r="H35" s="85"/>
+      <c r="I35" s="85">
         <v>1.3695999999999999</v>
       </c>
-      <c r="J35" s="78"/>
+      <c r="J35" s="85"/>
       <c r="K35" s="12">
         <v>81.6905</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77">
+      <c r="A36" s="84">
         <v>27</v>
       </c>
-      <c r="B36" s="77"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="9">
         <v>49.5045</v>
       </c>
       <c r="D36" s="9">
         <v>1.49E-2</v>
       </c>
-      <c r="E36" s="78">
+      <c r="E36" s="85">
         <v>92.961699999999993</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78">
+      <c r="F36" s="85"/>
+      <c r="G36" s="85">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78">
+      <c r="H36" s="85"/>
+      <c r="I36" s="85">
         <v>1.9151</v>
       </c>
-      <c r="J36" s="78"/>
+      <c r="J36" s="85"/>
       <c r="K36" s="12">
         <v>79.637100000000004</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77">
+      <c r="A37" s="84">
         <v>28</v>
       </c>
-      <c r="B37" s="77"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="9">
         <v>70.326599999999999</v>
       </c>
       <c r="D37" s="9">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="E37" s="78">
+      <c r="E37" s="85">
         <v>93.102699999999999</v>
       </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78">
+      <c r="F37" s="85"/>
+      <c r="G37" s="85">
         <v>0.27950000000000003</v>
       </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78">
+      <c r="H37" s="85"/>
+      <c r="I37" s="85">
         <v>2.6309</v>
       </c>
-      <c r="J37" s="78"/>
+      <c r="J37" s="85"/>
       <c r="K37" s="12">
         <v>77.561000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79">
+      <c r="A38" s="93">
         <v>29</v>
       </c>
-      <c r="B38" s="79"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="10">
         <v>99.958500000000001</v>
       </c>
       <c r="D38" s="10">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="E38" s="80">
+      <c r="E38" s="94">
         <v>93.292299999999997</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80">
+      <c r="F38" s="94"/>
+      <c r="G38" s="94">
         <v>0.15459999999999999</v>
       </c>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80">
+      <c r="H38" s="94"/>
+      <c r="I38" s="94">
         <v>4.7557999999999998</v>
       </c>
-      <c r="J38" s="80"/>
+      <c r="J38" s="94"/>
       <c r="K38" s="13">
         <v>73.948800000000006</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="146">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="E10:F10"/>
@@ -7831,114 +7925,28 @@
     <mergeCell ref="E8:F9"/>
     <mergeCell ref="G8:H9"/>
     <mergeCell ref="I8:J9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/表3储层岩石学特征.xlsx
+++ b/Excel/表3储层岩石学特征.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256D2671-CF47-4488-BA0A-30793E4DFEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4514D089-567A-4CBD-8EB6-2407D7B2121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1434,36 +1434,36 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1494,41 +1494,77 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1547,42 +1583,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2016,20 +2016,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:overlay val="0"/>
           <c:spPr>
@@ -4364,85 +4350,85 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47">
         <v>5</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47">
         <v>394</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="50" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46" t="s">
+      <c r="H4" s="51"/>
+      <c r="I4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="46"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
@@ -4455,7 +4441,7 @@
       <c r="E5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="48"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="22" t="s">
         <v>24</v>
       </c>
@@ -4945,21 +4931,21 @@
       <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="54" t="s">
+      <c r="E21" s="47"/>
+      <c r="F21" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="22" t="s">
         <v>91</v>
       </c>
@@ -4971,19 +4957,19 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48" t="s">
+      <c r="E22" s="47"/>
+      <c r="F22" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="22" t="s">
         <v>97</v>
       </c>
@@ -4995,19 +4981,19 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="51">
+      <c r="A23" s="49"/>
+      <c r="B23" s="45">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51">
+      <c r="C23" s="45"/>
+      <c r="D23" s="45">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51">
+      <c r="E23" s="45"/>
+      <c r="F23" s="45">
         <v>0.52300000000000002</v>
       </c>
-      <c r="G23" s="51"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="26">
         <v>0.42659999999999998</v>
       </c>
@@ -5019,23 +5005,39 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
@@ -5048,22 +5050,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5083,82 +5069,82 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47">
         <v>6</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47">
         <v>394</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46" t="s">
+      <c r="H4" s="51"/>
+      <c r="I4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="46"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
@@ -5667,25 +5653,25 @@
       <c r="A21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48" t="s">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="47" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5693,30 +5679,30 @@
       <c r="A22" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48" t="s">
+      <c r="C23" s="47"/>
+      <c r="D23" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48" t="s">
+      <c r="E23" s="47"/>
+      <c r="F23" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="22" t="s">
         <v>97</v>
       </c>
@@ -5729,18 +5715,18 @@
     </row>
     <row r="24" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
-      <c r="B24" s="51">
+      <c r="B24" s="45">
         <v>0</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45">
         <v>0</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51">
+      <c r="E24" s="45"/>
+      <c r="F24" s="45">
         <v>0</v>
       </c>
-      <c r="G24" s="51"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="26">
         <v>0.93600000000000005</v>
       </c>
@@ -5752,23 +5738,37 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="H21:H22"/>
@@ -5783,20 +5783,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6064,146 +6050,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="66">
         <v>3</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67" t="s">
+      <c r="I4" s="67"/>
+      <c r="J4" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="67"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="65">
+      <c r="E5" s="67"/>
+      <c r="F5" s="66">
         <v>24.2</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="76">
+      <c r="I5" s="67"/>
+      <c r="J5" s="68">
         <v>41143</v>
       </c>
-      <c r="K5" s="76"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="65">
+      <c r="E6" s="67"/>
+      <c r="F6" s="66">
         <v>134.316</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
     </row>
     <row r="7" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
@@ -6859,6 +6845,18 @@
     <row r="39" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
@@ -6870,18 +6868,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6904,1011 +6890,925 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="82"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="66">
         <v>4</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
     </row>
     <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="65">
+      <c r="E5" s="67"/>
+      <c r="F5" s="66">
         <v>13.53</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="76">
+      <c r="I5" s="67"/>
+      <c r="J5" s="68">
         <v>41143</v>
       </c>
-      <c r="K5" s="76"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="65">
+      <c r="E6" s="67"/>
+      <c r="F6" s="66">
         <v>3.6219999999999999</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
     </row>
     <row r="7" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
     </row>
     <row r="8" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="88" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="92" t="s">
+      <c r="F8" s="84"/>
+      <c r="G8" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="92" t="s">
+      <c r="H8" s="84"/>
+      <c r="I8" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="89" t="s">
+      <c r="J8" s="84"/>
+      <c r="K8" s="85" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="90"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="86"/>
     </row>
     <row r="10" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="77">
         <v>1</v>
       </c>
-      <c r="B10" s="84"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="9">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D10" s="9">
         <v>210.5823</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="78">
         <v>0</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84">
+      <c r="A11" s="77">
         <v>2</v>
       </c>
-      <c r="B11" s="84"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="9">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D11" s="9">
         <v>97.96</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="78">
         <v>0</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
+      <c r="A12" s="77">
         <v>3</v>
       </c>
-      <c r="B12" s="84"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="9">
         <v>1.09E-2</v>
       </c>
       <c r="D12" s="9">
         <v>67.197900000000004</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="78">
         <v>0</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="77">
         <v>4</v>
       </c>
-      <c r="B13" s="84"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="9">
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="D13" s="9">
         <v>48.639499999999998</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="78">
         <v>0</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
+      <c r="A14" s="77">
         <v>5</v>
       </c>
-      <c r="B14" s="84"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D14" s="9">
         <v>33.430900000000001</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="78">
         <v>0</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84">
+      <c r="A15" s="77">
         <v>6</v>
       </c>
-      <c r="B15" s="84"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="9">
         <v>3.09E-2</v>
       </c>
       <c r="D15" s="9">
         <v>23.817499999999999</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="78">
         <v>0</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84">
+      <c r="A16" s="77">
         <v>7</v>
       </c>
-      <c r="B16" s="84"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="9">
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="D16" s="9">
         <v>16.7349</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="78">
         <v>0</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84">
+      <c r="A17" s="77">
         <v>8</v>
       </c>
-      <c r="B17" s="84"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="9">
         <v>6.2600000000000003E-2</v>
       </c>
       <c r="D17" s="9">
         <v>11.7425</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="78">
         <v>0.34160000000000001</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="77">
         <v>9</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="9">
         <v>8.3900000000000002E-2</v>
       </c>
       <c r="D18" s="9">
         <v>8.7698</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="78">
         <v>0.95820000000000005</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
+      <c r="A19" s="77">
         <v>10</v>
       </c>
-      <c r="B19" s="84"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="9">
         <v>0.10680000000000001</v>
       </c>
       <c r="D19" s="9">
         <v>6.8837999999999999</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="78">
         <v>2.0160999999999998</v>
       </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84">
+      <c r="A20" s="77">
         <v>11</v>
       </c>
-      <c r="B20" s="84"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="9">
         <v>0.13769999999999999</v>
       </c>
       <c r="D20" s="9">
         <v>5.3410000000000002</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="78">
         <v>4.5359999999999996</v>
       </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85">
+      <c r="F20" s="78"/>
+      <c r="G20" s="78">
         <v>99.958500000000001</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85">
+      <c r="H20" s="78"/>
+      <c r="I20" s="78">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="J20" s="85"/>
+      <c r="J20" s="78"/>
       <c r="K20" s="12">
         <v>93.292299999999997</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84">
+      <c r="A21" s="77">
         <v>12</v>
       </c>
-      <c r="B21" s="84"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="9">
         <v>0.23630000000000001</v>
       </c>
       <c r="D21" s="9">
         <v>3.1116999999999999</v>
       </c>
-      <c r="E21" s="85">
+      <c r="E21" s="78">
         <v>8.5861000000000001</v>
       </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85">
+      <c r="F21" s="78"/>
+      <c r="G21" s="78">
         <v>70.318600000000004</v>
       </c>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85">
+      <c r="H21" s="78"/>
+      <c r="I21" s="78">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="J21" s="85"/>
+      <c r="J21" s="78"/>
       <c r="K21" s="12">
         <v>94.080299999999994</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
+      <c r="A22" s="77">
         <v>13</v>
       </c>
-      <c r="B22" s="84"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="9">
         <v>0.34379999999999999</v>
       </c>
       <c r="D22" s="9">
         <v>2.1391</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="78">
         <v>16.319600000000001</v>
       </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85">
+      <c r="F22" s="78"/>
+      <c r="G22" s="78">
         <v>49.610599999999998</v>
       </c>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85">
+      <c r="H22" s="78"/>
+      <c r="I22" s="78">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="J22" s="85"/>
+      <c r="J22" s="78"/>
       <c r="K22" s="12">
         <v>94.080299999999994</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
+      <c r="A23" s="77">
         <v>14</v>
       </c>
-      <c r="B23" s="84"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="9">
         <v>0.49349999999999999</v>
       </c>
       <c r="D23" s="9">
         <v>1.4902</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="78">
         <v>27.081499999999998</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85">
+      <c r="F23" s="78"/>
+      <c r="G23" s="78">
         <v>34.981099999999998</v>
       </c>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85">
+      <c r="H23" s="78"/>
+      <c r="I23" s="78">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J23" s="85"/>
+      <c r="J23" s="78"/>
       <c r="K23" s="12">
         <v>94.080299999999994</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84">
+      <c r="A24" s="77">
         <v>15</v>
       </c>
-      <c r="B24" s="84"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="9">
         <v>0.71540000000000004</v>
       </c>
       <c r="D24" s="9">
         <v>1.028</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="78">
         <v>39.197600000000001</v>
       </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85">
+      <c r="F24" s="78"/>
+      <c r="G24" s="78">
         <v>24.6172</v>
       </c>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85">
+      <c r="H24" s="78"/>
+      <c r="I24" s="78">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="J24" s="85"/>
+      <c r="J24" s="78"/>
       <c r="K24" s="12">
         <v>94.080299999999994</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="84">
+      <c r="A25" s="77">
         <v>16</v>
       </c>
-      <c r="B25" s="84"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="9">
         <v>1.0222</v>
       </c>
       <c r="D25" s="9">
         <v>0.71940000000000004</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="78">
         <v>48.812399999999997</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85">
+      <c r="F25" s="78"/>
+      <c r="G25" s="78">
         <v>17.328499999999998</v>
       </c>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85">
+      <c r="H25" s="78"/>
+      <c r="I25" s="78">
         <v>4.24E-2</v>
       </c>
-      <c r="J25" s="85"/>
+      <c r="J25" s="78"/>
       <c r="K25" s="12">
         <v>93.7864</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
+      <c r="A26" s="77">
         <v>17</v>
       </c>
-      <c r="B26" s="84"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="9">
         <v>1.4581</v>
       </c>
       <c r="D26" s="9">
         <v>0.50429999999999997</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="78">
         <v>56.814799999999998</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85">
+      <c r="F26" s="78"/>
+      <c r="G26" s="78">
         <v>12.205500000000001</v>
       </c>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85">
+      <c r="H26" s="78"/>
+      <c r="I26" s="78">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="J26" s="85"/>
+      <c r="J26" s="78"/>
       <c r="K26" s="12">
         <v>93.288200000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84">
+      <c r="A27" s="77">
         <v>18</v>
       </c>
-      <c r="B27" s="84"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="9">
         <v>2.0951</v>
       </c>
       <c r="D27" s="9">
         <v>0.35099999999999998</v>
       </c>
-      <c r="E27" s="85">
+      <c r="E27" s="78">
         <v>64.286299999999997</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85">
+      <c r="F27" s="78"/>
+      <c r="G27" s="78">
         <v>8.5958000000000006</v>
       </c>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85">
+      <c r="H27" s="78"/>
+      <c r="I27" s="78">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="J27" s="85"/>
+      <c r="J27" s="78"/>
       <c r="K27" s="12">
         <v>92.676599999999993</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84">
+      <c r="A28" s="77">
         <v>19</v>
       </c>
-      <c r="B28" s="84"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="9">
         <v>2.9752000000000001</v>
       </c>
       <c r="D28" s="9">
         <v>0.2472</v>
       </c>
-      <c r="E28" s="85">
+      <c r="E28" s="78">
         <v>70.7667</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85">
+      <c r="F28" s="78"/>
+      <c r="G28" s="78">
         <v>6.0758999999999999</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85">
+      <c r="H28" s="78"/>
+      <c r="I28" s="78">
         <v>0.121</v>
       </c>
-      <c r="J28" s="85"/>
+      <c r="J28" s="78"/>
       <c r="K28" s="12">
         <v>91.899600000000007</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="84">
+      <c r="A29" s="77">
         <v>20</v>
       </c>
-      <c r="B29" s="84"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="9">
         <v>4.2237</v>
       </c>
       <c r="D29" s="9">
         <v>0.1741</v>
       </c>
-      <c r="E29" s="85">
+      <c r="E29" s="78">
         <v>76.165400000000005</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85">
+      <c r="F29" s="78"/>
+      <c r="G29" s="78">
         <v>4.2877000000000001</v>
       </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85">
+      <c r="H29" s="78"/>
+      <c r="I29" s="78">
         <v>0.17150000000000001</v>
       </c>
-      <c r="J29" s="85"/>
+      <c r="J29" s="78"/>
       <c r="K29" s="12">
         <v>90.984999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84">
+      <c r="A30" s="77">
         <v>21</v>
       </c>
-      <c r="B30" s="84"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="9">
         <v>6.0103999999999997</v>
       </c>
       <c r="D30" s="9">
         <v>0.12239999999999999</v>
       </c>
-      <c r="E30" s="85">
+      <c r="E30" s="78">
         <v>80.558300000000003</v>
       </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85">
+      <c r="F30" s="78"/>
+      <c r="G30" s="78">
         <v>3.0209000000000001</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85">
+      <c r="H30" s="78"/>
+      <c r="I30" s="78">
         <v>0.24340000000000001</v>
       </c>
-      <c r="J30" s="85"/>
+      <c r="J30" s="78"/>
       <c r="K30" s="12">
         <v>89.890500000000003</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84">
+      <c r="A31" s="77">
         <v>22</v>
       </c>
-      <c r="B31" s="84"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="9">
         <v>8.5493000000000006</v>
       </c>
       <c r="D31" s="9">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E31" s="85">
+      <c r="E31" s="78">
         <v>84.144400000000005</v>
       </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85">
+      <c r="F31" s="78"/>
+      <c r="G31" s="78">
         <v>2.1324000000000001</v>
       </c>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85">
+      <c r="H31" s="78"/>
+      <c r="I31" s="78">
         <v>0.34489999999999998</v>
       </c>
-      <c r="J31" s="85"/>
+      <c r="J31" s="78"/>
       <c r="K31" s="12">
         <v>88.604500000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="84">
+      <c r="A32" s="77">
         <v>23</v>
       </c>
-      <c r="B32" s="84"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="9">
         <v>12.160299999999999</v>
       </c>
       <c r="D32" s="9">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="E32" s="85">
+      <c r="E32" s="78">
         <v>87.006200000000007</v>
       </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85">
+      <c r="F32" s="78"/>
+      <c r="G32" s="78">
         <v>1.5168999999999999</v>
       </c>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85">
+      <c r="H32" s="78"/>
+      <c r="I32" s="78">
         <v>0.48480000000000001</v>
       </c>
-      <c r="J32" s="85"/>
+      <c r="J32" s="78"/>
       <c r="K32" s="12">
         <v>87.131600000000006</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="84">
+      <c r="A33" s="77">
         <v>24</v>
       </c>
-      <c r="B33" s="84"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="9">
         <v>17.273099999999999</v>
       </c>
       <c r="D33" s="9">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="E33" s="85">
+      <c r="E33" s="78">
         <v>89.270099999999999</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85">
+      <c r="F33" s="78"/>
+      <c r="G33" s="78">
         <v>1.0650999999999999</v>
       </c>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85">
+      <c r="H33" s="78"/>
+      <c r="I33" s="78">
         <v>0.6905</v>
       </c>
-      <c r="J33" s="85"/>
+      <c r="J33" s="78"/>
       <c r="K33" s="12">
         <v>85.462400000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84">
+      <c r="A34" s="77">
         <v>25</v>
       </c>
-      <c r="B34" s="84"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="9">
         <v>24.534700000000001</v>
       </c>
       <c r="D34" s="9">
         <v>0.03</v>
       </c>
-      <c r="E34" s="85">
+      <c r="E34" s="78">
         <v>91.031300000000002</v>
       </c>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85">
+      <c r="F34" s="78"/>
+      <c r="G34" s="78">
         <v>0.76039999999999996</v>
       </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85">
+      <c r="H34" s="78"/>
+      <c r="I34" s="78">
         <v>0.96719999999999995</v>
       </c>
-      <c r="J34" s="85"/>
+      <c r="J34" s="78"/>
       <c r="K34" s="12">
         <v>83.626900000000006</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84">
+      <c r="A35" s="77">
         <v>26</v>
       </c>
-      <c r="B35" s="84"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="9">
         <v>34.8474</v>
       </c>
       <c r="D35" s="9">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="E35" s="85">
+      <c r="E35" s="78">
         <v>92.260599999999997</v>
       </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85">
+      <c r="F35" s="78"/>
+      <c r="G35" s="78">
         <v>0.53690000000000004</v>
       </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85">
+      <c r="H35" s="78"/>
+      <c r="I35" s="78">
         <v>1.3695999999999999</v>
       </c>
-      <c r="J35" s="85"/>
+      <c r="J35" s="78"/>
       <c r="K35" s="12">
         <v>81.6905</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84">
+      <c r="A36" s="77">
         <v>27</v>
       </c>
-      <c r="B36" s="84"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="9">
         <v>49.5045</v>
       </c>
       <c r="D36" s="9">
         <v>1.49E-2</v>
       </c>
-      <c r="E36" s="85">
+      <c r="E36" s="78">
         <v>92.961699999999993</v>
       </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85">
+      <c r="F36" s="78"/>
+      <c r="G36" s="78">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85">
+      <c r="H36" s="78"/>
+      <c r="I36" s="78">
         <v>1.9151</v>
       </c>
-      <c r="J36" s="85"/>
+      <c r="J36" s="78"/>
       <c r="K36" s="12">
         <v>79.637100000000004</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84">
+      <c r="A37" s="77">
         <v>28</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="9">
         <v>70.326599999999999</v>
       </c>
       <c r="D37" s="9">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="E37" s="85">
+      <c r="E37" s="78">
         <v>93.102699999999999</v>
       </c>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85">
+      <c r="F37" s="78"/>
+      <c r="G37" s="78">
         <v>0.27950000000000003</v>
       </c>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85">
+      <c r="H37" s="78"/>
+      <c r="I37" s="78">
         <v>2.6309</v>
       </c>
-      <c r="J37" s="85"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="12">
         <v>77.561000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="93">
+      <c r="A38" s="79">
         <v>29</v>
       </c>
-      <c r="B38" s="93"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="10">
         <v>99.958500000000001</v>
       </c>
       <c r="D38" s="10">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="E38" s="94">
+      <c r="E38" s="80">
         <v>93.292299999999997</v>
       </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94">
+      <c r="F38" s="80"/>
+      <c r="G38" s="80">
         <v>0.15459999999999999</v>
       </c>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94">
+      <c r="H38" s="80"/>
+      <c r="I38" s="80">
         <v>4.7557999999999998</v>
       </c>
-      <c r="J38" s="94"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="13">
         <v>73.948800000000006</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="146">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="E10:F10"/>
@@ -7925,28 +7825,114 @@
     <mergeCell ref="E8:F9"/>
     <mergeCell ref="G8:H9"/>
     <mergeCell ref="I8:J9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/表3储层岩石学特征.xlsx
+++ b/Excel/表3储层岩石学特征.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4514D089-567A-4CBD-8EB6-2407D7B2121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FB5B42-A678-47D0-84BC-C77A7CB632B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表3-1 矿物含量" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="166">
   <si>
     <t>井号</t>
   </si>
@@ -868,12 +868,16 @@
   <si>
     <t>　/</t>
   </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,6 +1011,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1022,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1292,13 +1324,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1419,6 +1479,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1434,15 +1497,27 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1452,18 +1527,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1494,96 +1557,63 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,6 +1646,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1625,6 +1676,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF000000"/>
     </mruColors>
   </colors>
@@ -1653,39 +1705,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12979116337111374"/>
+          <c:y val="9.3363240936561218E-2"/>
+          <c:w val="0.83974009246006542"/>
+          <c:h val="0.7366594955856095"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1693,12 +1725,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>进汞曲线</c:v>
+            <c:v>孔喉半径-进汞</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1709,11 +1741,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1911,10 +1943,179 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B494-4DFC-94A9-73485501E08B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>孔喉半径-退汞</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'表3-5 D52井毛管压力分析报告'!$G$20:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>93.631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.087000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.087000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.087000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.087000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.988500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.562200000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.962000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.156000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.100499999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.804599999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.266599999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.482200000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.387699999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.962299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79.252099999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.418400000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73.6678</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.655000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'表3-5 D52井毛管压力分析报告'!$F$20:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.98E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5400000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1719</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3693</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9165000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6497999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8045999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C5B5-428E-8A36-2C42C94A43DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1933,10 +2134,40 @@
         <c:axId val="1552557040"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>汞饱和度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1985,16 +2216,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -2017,6 +2248,73 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>孔吼半径 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="zh-CN" sz="1000" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.870758978094245E-2"/>
+              <c:y val="0.31815540102072803"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2047,17 +2345,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2068,16 +2363,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -2099,6 +2391,49 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71263882086509522"/>
+          <c:y val="0.13606330000305883"/>
+          <c:w val="0.23060882341860378"/>
+          <c:h val="0.14097847669649083"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2145,47 +2480,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13244923331951927"/>
+          <c:y val="9.3363360291595227E-2"/>
+          <c:w val="0.83974009246006542"/>
+          <c:h val="0.7366594955856095"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>孔喉半径-进汞</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -2194,8 +2512,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -2204,14 +2522,13 @@
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'表3-5 D52井毛管压力分析报告'!$D$10:$D$38</c:f>
+              <c:f>'表3-6 D33井毛管压力分析报告'!$E$10:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -2225,157 +2542,157 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1514000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8692000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.970499999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.0151</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.485399999999998</c:v>
+                  <c:v>0.34160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.784500000000001</c:v>
+                  <c:v>0.95820000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.689799999999998</c:v>
+                  <c:v>2.0160999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.881599999999999</c:v>
+                  <c:v>4.5359999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.1798</c:v>
+                  <c:v>8.5861000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.347799999999999</c:v>
+                  <c:v>16.319600000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70.144400000000005</c:v>
+                  <c:v>27.081499999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75.534800000000004</c:v>
+                  <c:v>39.197600000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79.548000000000002</c:v>
+                  <c:v>48.812399999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82.863799999999998</c:v>
+                  <c:v>56.814799999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.555199999999999</c:v>
+                  <c:v>64.286299999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.756600000000006</c:v>
+                  <c:v>70.7667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>89.383300000000006</c:v>
+                  <c:v>76.165400000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>90.723799999999997</c:v>
+                  <c:v>80.558300000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>91.696299999999994</c:v>
+                  <c:v>84.144400000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92.386799999999994</c:v>
+                  <c:v>87.006200000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>92.830600000000004</c:v>
+                  <c:v>89.270099999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>93.271900000000002</c:v>
+                  <c:v>91.031300000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>93.466899999999995</c:v>
+                  <c:v>92.260599999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>93.520799999999994</c:v>
+                  <c:v>92.961699999999993</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>93.631</c:v>
+                  <c:v>93.102699999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>93.631</c:v>
+                  <c:v>93.292299999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'表3-5 D52井毛管压力分析报告'!$C$10:$C$38</c:f>
+              <c:f>'表3-6 D33井毛管压力分析报告'!$D$10:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>211.16900000000001</c:v>
+                  <c:v>210.5823</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.03</c:v>
+                  <c:v>97.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.128399999999999</c:v>
+                  <c:v>67.197900000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.633099999999999</c:v>
+                  <c:v>48.639499999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.417299999999997</c:v>
+                  <c:v>33.430900000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.798500000000001</c:v>
+                  <c:v>23.817499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.721800000000002</c:v>
+                  <c:v>16.7349</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.742900000000001</c:v>
+                  <c:v>11.7425</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7706</c:v>
+                  <c:v>8.7698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8817000000000004</c:v>
+                  <c:v>6.8837999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3418000000000001</c:v>
+                  <c:v>5.3410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0886999999999998</c:v>
+                  <c:v>3.1116999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1478000000000002</c:v>
+                  <c:v>2.1391</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4799</c:v>
+                  <c:v>1.4902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0243</c:v>
+                  <c:v>1.028</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.71919999999999995</c:v>
+                  <c:v>0.71940000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.50280000000000002</c:v>
+                  <c:v>0.50429999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3523</c:v>
+                  <c:v>0.35099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.24779999999999999</c:v>
+                  <c:v>0.2472</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.17430000000000001</c:v>
+                  <c:v>0.1741</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.12239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.6099999999999996E-2</c:v>
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>6.0499999999999998E-2</c:v>
@@ -2404,7 +2721,176 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-07B5-4DB6-8ECA-AB4C5D9C85EC}"/>
+              <c16:uniqueId val="{00000003-47A2-4BF1-AC05-1546C5E74A3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>孔喉半径-退汞</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'表3-6 D33井毛管压力分析报告'!$H$20:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>93.292299999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.080299999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.080299999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.080299999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.080299999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.7864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.288200000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.676599999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.899600000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.890500000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.604500000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.131600000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.462400000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.626900000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.6905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.637100000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77.561000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.948800000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'表3-6 D33井毛管压力分析报告'!$G$20:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5599999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96719999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3695999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6309</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7557999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-47A2-4BF1-AC05-1546C5E74A3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2423,35 +2909,78 @@
         <c:axId val="1552557040"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>汞饱和度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2462,16 +2991,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -2493,32 +3022,112 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>孔吼半径 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="zh-CN" sz="1000" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.870758978094245E-2"/>
+              <c:y val="0.31815540102072803"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2529,16 +3138,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -2549,28 +3155,70 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71263882086509522"/>
+          <c:y val="0.13606330000305883"/>
+          <c:w val="0.23060882341860378"/>
+          <c:h val="0.14250918136716095"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3190,7 +3838,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3201,7 +3849,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3217,25 +3865,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3247,7 +3895,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3255,11 +3903,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3291,45 +3939,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3341,26 +3979,22 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3390,13 +4024,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3406,7 +4042,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3415,13 +4051,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3430,16 +4067,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3448,10 +4086,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -3467,15 +4105,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3494,16 +4138,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3512,16 +4157,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3530,16 +4176,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3560,7 +4207,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3568,7 +4215,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3581,17 +4228,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3599,10 +4235,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3623,7 +4259,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3632,13 +4268,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3652,26 +4289,27 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3688,9 +4326,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3703,8 +4341,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3819,16 +4463,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171158</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139336</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31569</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>150221</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3853,25 +4497,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>315938</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>35000</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>249283</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>155664</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0F936C-B877-4797-98AD-89A2B626F09A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFF5B49-2DE4-41C0-826A-D688C3623959}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3885,7 +4534,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4153,25 +4802,25 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="28" t="s">
         <v>4</v>
       </c>
@@ -4350,85 +4999,85 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="51" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49">
         <v>5</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47">
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49">
         <v>394</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="51"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
@@ -4441,7 +5090,7 @@
       <c r="E5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="47"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="22" t="s">
         <v>24</v>
       </c>
@@ -4931,21 +5580,21 @@
       <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="50" t="s">
+      <c r="E21" s="49"/>
+      <c r="F21" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="47"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="22" t="s">
         <v>91</v>
       </c>
@@ -4957,19 +5606,19 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47" t="s">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47" t="s">
+      <c r="E22" s="49"/>
+      <c r="F22" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="47"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="22" t="s">
         <v>97</v>
       </c>
@@ -4981,19 +5630,19 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="45">
+      <c r="A23" s="54"/>
+      <c r="B23" s="52">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45">
+      <c r="E23" s="52"/>
+      <c r="F23" s="52">
         <v>0.52300000000000002</v>
       </c>
-      <c r="G23" s="45"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="26">
         <v>0.42659999999999998</v>
       </c>
@@ -5005,39 +5654,23 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
@@ -5050,6 +5683,22 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5069,82 +5718,82 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="51" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49">
         <v>6</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47">
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49">
         <v>394</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="51"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
@@ -5653,25 +6302,25 @@
       <c r="A21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47" t="s">
+      <c r="E21" s="49"/>
+      <c r="F21" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47" t="s">
+      <c r="G21" s="49"/>
+      <c r="H21" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="49" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5679,30 +6328,30 @@
       <c r="A22" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47" t="s">
+      <c r="E23" s="49"/>
+      <c r="F23" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="47"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="22" t="s">
         <v>97</v>
       </c>
@@ -5715,18 +6364,18 @@
     </row>
     <row r="24" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
-      <c r="B24" s="45">
+      <c r="B24" s="52">
         <v>0</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45">
+      <c r="C24" s="52"/>
+      <c r="D24" s="52">
         <v>0</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45">
+      <c r="E24" s="52"/>
+      <c r="F24" s="52">
         <v>0</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="26">
         <v>0.93600000000000005</v>
       </c>
@@ -5738,37 +6387,23 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="H21:H22"/>
@@ -5783,6 +6418,20 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5802,57 +6451,57 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="55" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="56" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="57"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6048,43 +6697,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -6104,8 +6753,8 @@
         <v>120</v>
       </c>
       <c r="I3" s="67"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -6125,10 +6774,10 @@
         <v>123</v>
       </c>
       <c r="I4" s="67"/>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="76"/>
+      <c r="K4" s="68"/>
     </row>
     <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -6148,10 +6797,10 @@
         <v>126</v>
       </c>
       <c r="I5" s="67"/>
-      <c r="J5" s="68">
+      <c r="J5" s="77">
         <v>41143</v>
       </c>
-      <c r="K5" s="68"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -6173,23 +6822,23 @@
         <v>128</v>
       </c>
       <c r="I6" s="67"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
@@ -6354,7 +7003,7 @@
       <c r="F16" s="35"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <v>8</v>
       </c>
@@ -6371,7 +7020,7 @@
       <c r="F17" s="35"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <v>9</v>
       </c>
@@ -6388,7 +7037,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>10</v>
       </c>
@@ -6405,7 +7054,7 @@
       <c r="F19" s="35"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <v>11</v>
       </c>
@@ -6428,7 +7077,7 @@
         <v>93.631</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <v>12</v>
       </c>
@@ -6451,7 +7100,7 @@
         <v>94.087000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>13</v>
       </c>
@@ -6474,7 +7123,7 @@
         <v>94.087000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39">
         <v>14</v>
       </c>
@@ -6497,7 +7146,7 @@
         <v>94.087000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <v>15</v>
       </c>
@@ -6520,7 +7169,7 @@
         <v>94.087000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
         <v>16</v>
       </c>
@@ -6543,7 +7192,7 @@
         <v>93.988500000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <v>17</v>
       </c>
@@ -6565,8 +7214,11 @@
       <c r="G26" s="12">
         <v>93.562200000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S26" s="40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <v>18</v>
       </c>
@@ -6589,7 +7241,7 @@
         <v>92.962000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
         <v>19</v>
       </c>
@@ -6612,7 +7264,7 @@
         <v>92.156000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <v>20</v>
       </c>
@@ -6635,7 +7287,7 @@
         <v>91.100499999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <v>21</v>
       </c>
@@ -6658,7 +7310,7 @@
         <v>89.804599999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <v>22</v>
       </c>
@@ -6681,7 +7333,7 @@
         <v>88.266599999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <v>23</v>
       </c>
@@ -6845,18 +7497,6 @@
     <row r="39" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
@@ -6868,6 +7508,18 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6880,8 +7532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6890,34 +7542,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -6937,8 +7589,8 @@
         <v>138</v>
       </c>
       <c r="I3" s="67"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -6958,8 +7610,8 @@
         <v>123</v>
       </c>
       <c r="I4" s="67"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -6979,12 +7631,12 @@
         <v>126</v>
       </c>
       <c r="I5" s="67"/>
-      <c r="J5" s="68">
+      <c r="J5" s="77">
         <v>41143</v>
       </c>
-      <c r="K5" s="68"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="77"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -7004,789 +7656,743 @@
         <v>128</v>
       </c>
       <c r="I6" s="67"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="88" t="s">
+      <c r="F8" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="88" t="s">
+      <c r="G8" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85" t="s">
+      <c r="H8" s="97" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="86"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77">
+      <c r="A10" s="98">
         <v>1</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="9">
+      <c r="B10" s="98"/>
+      <c r="C10" s="99">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="99">
         <v>210.5823</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="101">
         <v>0</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="11"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77">
+      <c r="A11" s="98">
         <v>2</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="9">
+      <c r="B11" s="98"/>
+      <c r="C11" s="99">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="99">
         <v>97.96</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="101">
         <v>0</v>
       </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="11"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="100"/>
     </row>
     <row r="12" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77">
+      <c r="A12" s="98">
         <v>3</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="9">
+      <c r="B12" s="98"/>
+      <c r="C12" s="99">
         <v>1.09E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="99">
         <v>67.197900000000004</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="101">
         <v>0</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="11"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
     </row>
     <row r="13" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77">
+      <c r="A13" s="98">
         <v>4</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="9">
+      <c r="B13" s="98"/>
+      <c r="C13" s="99">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="99">
         <v>48.639499999999998</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="101">
         <v>0</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="11"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
     </row>
     <row r="14" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
+      <c r="A14" s="98">
         <v>5</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="9">
+      <c r="B14" s="98"/>
+      <c r="C14" s="99">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="99">
         <v>33.430900000000001</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="101">
         <v>0</v>
       </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="11"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77">
+      <c r="A15" s="98">
         <v>6</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="9">
+      <c r="B15" s="98"/>
+      <c r="C15" s="99">
         <v>3.09E-2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="99">
         <v>23.817499999999999</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="101">
         <v>0</v>
       </c>
-      <c r="F15" s="78"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="11"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
     </row>
     <row r="16" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77">
+      <c r="A16" s="98">
         <v>7</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="9">
+      <c r="B16" s="98"/>
+      <c r="C16" s="99">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="99">
         <v>16.7349</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="101">
         <v>0</v>
       </c>
-      <c r="F16" s="78"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77">
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="98">
         <v>8</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="9">
+      <c r="B17" s="98"/>
+      <c r="C17" s="99">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="99">
         <v>11.7425</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="101">
         <v>0.34160000000000001</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="98">
         <v>9</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="9">
+      <c r="B18" s="98"/>
+      <c r="C18" s="99">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="99">
         <v>8.7698</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="101">
         <v>0.95820000000000005</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="98">
         <v>10</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="9">
+      <c r="B19" s="98"/>
+      <c r="C19" s="99">
         <v>0.10680000000000001</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="99">
         <v>6.8837999999999999</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="101">
         <v>2.0160999999999998</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77">
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="98">
         <v>11</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="9">
+      <c r="B20" s="98"/>
+      <c r="C20" s="99">
         <v>0.13769999999999999</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="99">
         <v>5.3410000000000002</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="101">
         <v>4.5359999999999996</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78">
+      <c r="F20" s="99">
         <v>99.958500000000001</v>
       </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78">
+      <c r="G20" s="99">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="12">
+      <c r="H20" s="99">
         <v>93.292299999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
+    <row r="21" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="98">
         <v>12</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="9">
+      <c r="B21" s="98"/>
+      <c r="C21" s="99">
         <v>0.23630000000000001</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="99">
         <v>3.1116999999999999</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="101">
         <v>8.5861000000000001</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78">
+      <c r="F21" s="99">
         <v>70.318600000000004</v>
       </c>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78">
+      <c r="G21" s="99">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="J21" s="78"/>
-      <c r="K21" s="12">
+      <c r="H21" s="99">
         <v>94.080299999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77">
+    <row r="22" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="98">
         <v>13</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="9">
+      <c r="B22" s="98"/>
+      <c r="C22" s="99">
         <v>0.34379999999999999</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="99">
         <v>2.1391</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="101">
         <v>16.319600000000001</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78">
+      <c r="F22" s="99">
         <v>49.610599999999998</v>
       </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78">
+      <c r="G22" s="99">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="J22" s="78"/>
-      <c r="K22" s="12">
+      <c r="H22" s="99">
         <v>94.080299999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
+    <row r="23" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="98">
         <v>14</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="9">
+      <c r="B23" s="98"/>
+      <c r="C23" s="99">
         <v>0.49349999999999999</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="99">
         <v>1.4902</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="101">
         <v>27.081499999999998</v>
       </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78">
+      <c r="F23" s="99">
         <v>34.981099999999998</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78">
+      <c r="G23" s="99">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J23" s="78"/>
-      <c r="K23" s="12">
+      <c r="H23" s="99">
         <v>94.080299999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77">
+    <row r="24" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="98">
         <v>15</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="9">
+      <c r="B24" s="98"/>
+      <c r="C24" s="99">
         <v>0.71540000000000004</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="99">
         <v>1.028</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="101">
         <v>39.197600000000001</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78">
+      <c r="F24" s="99">
         <v>24.6172</v>
       </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78">
+      <c r="G24" s="99">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="J24" s="78"/>
-      <c r="K24" s="12">
+      <c r="H24" s="99">
         <v>94.080299999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77">
+    <row r="25" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="98">
         <v>16</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="9">
+      <c r="B25" s="98"/>
+      <c r="C25" s="99">
         <v>1.0222</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="99">
         <v>0.71940000000000004</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="101">
         <v>48.812399999999997</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78">
+      <c r="F25" s="99">
         <v>17.328499999999998</v>
       </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78">
+      <c r="G25" s="99">
         <v>4.24E-2</v>
       </c>
-      <c r="J25" s="78"/>
-      <c r="K25" s="12">
+      <c r="H25" s="99">
         <v>93.7864</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77">
+    <row r="26" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="98">
         <v>17</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="9">
+      <c r="B26" s="98"/>
+      <c r="C26" s="99">
         <v>1.4581</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="99">
         <v>0.50429999999999997</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="101">
         <v>56.814799999999998</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78">
+      <c r="F26" s="99">
         <v>12.205500000000001</v>
       </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78">
+      <c r="G26" s="99">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="J26" s="78"/>
-      <c r="K26" s="12">
+      <c r="H26" s="99">
         <v>93.288200000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77">
+    <row r="27" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="98">
         <v>18</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="9">
+      <c r="B27" s="98"/>
+      <c r="C27" s="99">
         <v>2.0951</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="99">
         <v>0.35099999999999998</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="101">
         <v>64.286299999999997</v>
       </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78">
+      <c r="F27" s="99">
         <v>8.5958000000000006</v>
       </c>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78">
+      <c r="G27" s="99">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="J27" s="78"/>
-      <c r="K27" s="12">
+      <c r="H27" s="99">
         <v>92.676599999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77">
+    <row r="28" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="98">
         <v>19</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="9">
+      <c r="B28" s="98"/>
+      <c r="C28" s="99">
         <v>2.9752000000000001</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="99">
         <v>0.2472</v>
       </c>
-      <c r="E28" s="78">
+      <c r="E28" s="101">
         <v>70.7667</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78">
+      <c r="F28" s="99">
         <v>6.0758999999999999</v>
       </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78">
+      <c r="G28" s="99">
         <v>0.121</v>
       </c>
-      <c r="J28" s="78"/>
-      <c r="K28" s="12">
+      <c r="H28" s="99">
         <v>91.899600000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77">
+    <row r="29" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="98">
         <v>20</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="9">
+      <c r="B29" s="98"/>
+      <c r="C29" s="99">
         <v>4.2237</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="99">
         <v>0.1741</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="101">
         <v>76.165400000000005</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78">
+      <c r="F29" s="99">
         <v>4.2877000000000001</v>
       </c>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78">
+      <c r="G29" s="99">
         <v>0.17150000000000001</v>
       </c>
-      <c r="J29" s="78"/>
-      <c r="K29" s="12">
+      <c r="H29" s="99">
         <v>90.984999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77">
+    <row r="30" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="98">
         <v>21</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="9">
+      <c r="B30" s="98"/>
+      <c r="C30" s="99">
         <v>6.0103999999999997</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="99">
         <v>0.12239999999999999</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="101">
         <v>80.558300000000003</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78">
+      <c r="F30" s="99">
         <v>3.0209000000000001</v>
       </c>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78">
+      <c r="G30" s="99">
         <v>0.24340000000000001</v>
       </c>
-      <c r="J30" s="78"/>
-      <c r="K30" s="12">
+      <c r="H30" s="99">
         <v>89.890500000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77">
+    <row r="31" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="98">
         <v>22</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="9">
+      <c r="B31" s="98"/>
+      <c r="C31" s="99">
         <v>8.5493000000000006</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="99">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E31" s="78">
+      <c r="E31" s="101">
         <v>84.144400000000005</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78">
+      <c r="F31" s="99">
         <v>2.1324000000000001</v>
       </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78">
+      <c r="G31" s="99">
         <v>0.34489999999999998</v>
       </c>
-      <c r="J31" s="78"/>
-      <c r="K31" s="12">
+      <c r="H31" s="99">
         <v>88.604500000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77">
+    <row r="32" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="98">
         <v>23</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="9">
+      <c r="B32" s="98"/>
+      <c r="C32" s="99">
         <v>12.160299999999999</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="99">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="E32" s="78">
+      <c r="E32" s="101">
         <v>87.006200000000007</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78">
+      <c r="F32" s="99">
         <v>1.5168999999999999</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78">
+      <c r="G32" s="99">
         <v>0.48480000000000001</v>
       </c>
-      <c r="J32" s="78"/>
-      <c r="K32" s="12">
+      <c r="H32" s="99">
         <v>87.131600000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77">
+    <row r="33" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="98">
         <v>24</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="9">
+      <c r="B33" s="98"/>
+      <c r="C33" s="99">
         <v>17.273099999999999</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="99">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="E33" s="78">
+      <c r="E33" s="101">
         <v>89.270099999999999</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78">
+      <c r="F33" s="99">
         <v>1.0650999999999999</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78">
+      <c r="G33" s="99">
         <v>0.6905</v>
       </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="12">
+      <c r="H33" s="99">
         <v>85.462400000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77">
+    <row r="34" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="98">
         <v>25</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="9">
+      <c r="B34" s="98"/>
+      <c r="C34" s="99">
         <v>24.534700000000001</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="99">
         <v>0.03</v>
       </c>
-      <c r="E34" s="78">
+      <c r="E34" s="101">
         <v>91.031300000000002</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78">
+      <c r="F34" s="99">
         <v>0.76039999999999996</v>
       </c>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78">
+      <c r="G34" s="99">
         <v>0.96719999999999995</v>
       </c>
-      <c r="J34" s="78"/>
-      <c r="K34" s="12">
+      <c r="H34" s="99">
         <v>83.626900000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77">
+    <row r="35" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="98">
         <v>26</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="9">
+      <c r="B35" s="98"/>
+      <c r="C35" s="99">
         <v>34.8474</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="99">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="101">
         <v>92.260599999999997</v>
       </c>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78">
+      <c r="F35" s="99">
         <v>0.53690000000000004</v>
       </c>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78">
+      <c r="G35" s="99">
         <v>1.3695999999999999</v>
       </c>
-      <c r="J35" s="78"/>
-      <c r="K35" s="12">
+      <c r="H35" s="99">
         <v>81.6905</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77">
+    <row r="36" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="98">
         <v>27</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="9">
+      <c r="B36" s="98"/>
+      <c r="C36" s="99">
         <v>49.5045</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="99">
         <v>1.49E-2</v>
       </c>
-      <c r="E36" s="78">
+      <c r="E36" s="101">
         <v>92.961699999999993</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78">
+      <c r="F36" s="99">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78">
+      <c r="G36" s="99">
         <v>1.9151</v>
       </c>
-      <c r="J36" s="78"/>
-      <c r="K36" s="12">
+      <c r="H36" s="99">
         <v>79.637100000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77">
+    <row r="37" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="98">
         <v>28</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="9">
+      <c r="B37" s="98"/>
+      <c r="C37" s="99">
         <v>70.326599999999999</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="99">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="E37" s="78">
+      <c r="E37" s="101">
         <v>93.102699999999999</v>
       </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78">
+      <c r="F37" s="99">
         <v>0.27950000000000003</v>
       </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78">
+      <c r="G37" s="99">
         <v>2.6309</v>
       </c>
-      <c r="J37" s="78"/>
-      <c r="K37" s="12">
+      <c r="H37" s="99">
         <v>77.561000000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79">
+    <row r="38" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="98">
         <v>29</v>
       </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="10">
+      <c r="B38" s="98"/>
+      <c r="C38" s="99">
         <v>99.958500000000001</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="99">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="E38" s="80">
+      <c r="E38" s="101">
         <v>93.292299999999997</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80">
+      <c r="F38" s="99">
         <v>0.15459999999999999</v>
       </c>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80">
+      <c r="G38" s="99">
         <v>4.7557999999999998</v>
       </c>
-      <c r="J38" s="80"/>
-      <c r="K38" s="13">
+      <c r="H38" s="99">
         <v>73.948800000000006</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="146">
+  <mergeCells count="59">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:C3"/>
@@ -7799,143 +8405,10 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7950,32 +8423,32 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="90" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="101"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="91"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -8138,14 +8611,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8178,28 +8651,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="94" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8270,13 +8743,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Excel/表3储层岩石学特征.xlsx
+++ b/Excel/表3储层岩石学特征.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FB5B42-A678-47D0-84BC-C77A7CB632B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6891ED6-53AF-4B36-A940-E4C6BED457B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1482,6 +1482,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1497,36 +1509,36 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1557,41 +1569,53 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1611,9 +1635,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1646,27 +1667,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2987,16 +2987,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4802,25 +4799,25 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="28" t="s">
         <v>4</v>
       </c>
@@ -4999,85 +4996,85 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52">
         <v>5</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49">
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52">
         <v>394</v>
       </c>
-      <c r="J3" s="49"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="51" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
@@ -5090,7 +5087,7 @@
       <c r="E5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="22" t="s">
         <v>24</v>
       </c>
@@ -5586,15 +5583,15 @@
       <c r="B21" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="52"/>
       <c r="F21" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="22" t="s">
         <v>91</v>
       </c>
@@ -5607,18 +5604,18 @@
     </row>
     <row r="22" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53"/>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49" t="s">
+      <c r="E22" s="52"/>
+      <c r="F22" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="49"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="22" t="s">
         <v>97</v>
       </c>
@@ -5631,18 +5628,18 @@
     </row>
     <row r="23" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="52">
+      <c r="B23" s="50">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52">
+      <c r="C23" s="50"/>
+      <c r="D23" s="50">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52">
+      <c r="E23" s="50"/>
+      <c r="F23" s="50">
         <v>0.52300000000000002</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="26">
         <v>0.42659999999999998</v>
       </c>
@@ -5654,23 +5651,39 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
@@ -5683,22 +5696,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5718,82 +5715,82 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52">
         <v>6</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49">
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52">
         <v>394</v>
       </c>
-      <c r="J3" s="49"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
@@ -6302,25 +6299,25 @@
       <c r="A21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49" t="s">
+      <c r="E21" s="52"/>
+      <c r="F21" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49" t="s">
+      <c r="G21" s="52"/>
+      <c r="H21" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="52" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6328,30 +6325,30 @@
       <c r="A22" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49" t="s">
+      <c r="E23" s="52"/>
+      <c r="F23" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="22" t="s">
         <v>97</v>
       </c>
@@ -6364,18 +6361,18 @@
     </row>
     <row r="24" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
-      <c r="B24" s="52">
+      <c r="B24" s="50">
         <v>0</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52">
+      <c r="C24" s="50"/>
+      <c r="D24" s="50">
         <v>0</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52">
+      <c r="E24" s="50"/>
+      <c r="F24" s="50">
         <v>0</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="26">
         <v>0.93600000000000005</v>
       </c>
@@ -6387,23 +6384,37 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="H21:H22"/>
@@ -6418,20 +6429,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6451,57 +6448,57 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="56" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="60" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="57"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="58"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6706,139 +6703,139 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="71">
         <v>3</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68" t="s">
+      <c r="I4" s="72"/>
+      <c r="J4" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="68"/>
+      <c r="K4" s="81"/>
     </row>
     <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="66">
+      <c r="E5" s="72"/>
+      <c r="F5" s="71">
         <v>24.2</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="67" t="s">
+      <c r="G5" s="71"/>
+      <c r="H5" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="77">
+      <c r="I5" s="72"/>
+      <c r="J5" s="73">
         <v>41143</v>
       </c>
-      <c r="K5" s="77"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="66">
+      <c r="E6" s="72"/>
+      <c r="F6" s="71">
         <v>134.316</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67" t="s">
+      <c r="G6" s="71"/>
+      <c r="H6" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
@@ -7497,6 +7494,18 @@
     <row r="39" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
@@ -7508,18 +7517,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7532,8 +7529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7542,834 +7539,832 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="91"/>
     </row>
     <row r="3" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="71">
         <v>4</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="66">
+      <c r="E5" s="72"/>
+      <c r="F5" s="71">
         <v>13.53</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="67" t="s">
+      <c r="G5" s="71"/>
+      <c r="H5" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="77">
+      <c r="I5" s="72"/>
+      <c r="J5" s="73">
         <v>41143</v>
       </c>
-      <c r="K5" s="77"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="66">
+      <c r="E6" s="72"/>
+      <c r="F6" s="71">
         <v>3.6219999999999999</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67" t="s">
+      <c r="G6" s="71"/>
+      <c r="H6" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="84"/>
       <c r="J7" s="84"/>
       <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="85" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
     </row>
     <row r="10" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98">
+      <c r="A10" s="82">
         <v>1</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="99">
+      <c r="B10" s="82"/>
+      <c r="C10" s="41">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="D10" s="99">
+      <c r="D10" s="41">
         <v>210.5823</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="43">
         <v>0</v>
       </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98">
+      <c r="A11" s="82">
         <v>2</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="99">
+      <c r="B11" s="82"/>
+      <c r="C11" s="41">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="41">
         <v>97.96</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="43">
         <v>0</v>
       </c>
-      <c r="F11" s="100"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="100"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98">
+      <c r="A12" s="82">
         <v>3</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99">
+      <c r="B12" s="82"/>
+      <c r="C12" s="41">
         <v>1.09E-2</v>
       </c>
-      <c r="D12" s="99">
+      <c r="D12" s="41">
         <v>67.197900000000004</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="43">
         <v>0</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="98">
+      <c r="A13" s="82">
         <v>4</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99">
+      <c r="B13" s="82"/>
+      <c r="C13" s="41">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D13" s="41">
         <v>48.639499999999998</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="43">
         <v>0</v>
       </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98">
+      <c r="A14" s="82">
         <v>5</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="99">
+      <c r="B14" s="82"/>
+      <c r="C14" s="41">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D14" s="99">
+      <c r="D14" s="41">
         <v>33.430900000000001</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="43">
         <v>0</v>
       </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="98">
+      <c r="A15" s="82">
         <v>6</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="99">
+      <c r="B15" s="82"/>
+      <c r="C15" s="41">
         <v>3.09E-2</v>
       </c>
-      <c r="D15" s="99">
+      <c r="D15" s="41">
         <v>23.817499999999999</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="43">
         <v>0</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="98">
+      <c r="A16" s="82">
         <v>7</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="99">
+      <c r="B16" s="82"/>
+      <c r="C16" s="41">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D16" s="41">
         <v>16.7349</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="43">
         <v>0</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98">
+      <c r="A17" s="82">
         <v>8</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99">
+      <c r="B17" s="82"/>
+      <c r="C17" s="41">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D17" s="41">
         <v>11.7425</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E17" s="43">
         <v>0.34160000000000001</v>
       </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98">
+      <c r="A18" s="82">
         <v>9</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99">
+      <c r="B18" s="82"/>
+      <c r="C18" s="41">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="D18" s="99">
+      <c r="D18" s="41">
         <v>8.7698</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E18" s="43">
         <v>0.95820000000000005</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98">
+      <c r="A19" s="82">
         <v>10</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99">
+      <c r="B19" s="82"/>
+      <c r="C19" s="41">
         <v>0.10680000000000001</v>
       </c>
-      <c r="D19" s="99">
+      <c r="D19" s="41">
         <v>6.8837999999999999</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E19" s="43">
         <v>2.0160999999999998</v>
       </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="98">
+      <c r="A20" s="82">
         <v>11</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99">
+      <c r="B20" s="82"/>
+      <c r="C20" s="41">
         <v>0.13769999999999999</v>
       </c>
-      <c r="D20" s="99">
+      <c r="D20" s="41">
         <v>5.3410000000000002</v>
       </c>
-      <c r="E20" s="101">
+      <c r="E20" s="43">
         <v>4.5359999999999996</v>
       </c>
-      <c r="F20" s="99">
+      <c r="F20" s="41">
         <v>99.958500000000001</v>
       </c>
-      <c r="G20" s="99">
+      <c r="G20" s="41">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="H20" s="99">
+      <c r="H20" s="41">
         <v>93.292299999999997</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="98">
+      <c r="A21" s="82">
         <v>12</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="99">
+      <c r="B21" s="82"/>
+      <c r="C21" s="41">
         <v>0.23630000000000001</v>
       </c>
-      <c r="D21" s="99">
+      <c r="D21" s="41">
         <v>3.1116999999999999</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E21" s="43">
         <v>8.5861000000000001</v>
       </c>
-      <c r="F21" s="99">
+      <c r="F21" s="41">
         <v>70.318600000000004</v>
       </c>
-      <c r="G21" s="99">
+      <c r="G21" s="41">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="H21" s="99">
+      <c r="H21" s="41">
         <v>94.080299999999994</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98">
+      <c r="A22" s="82">
         <v>13</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99">
+      <c r="B22" s="82"/>
+      <c r="C22" s="41">
         <v>0.34379999999999999</v>
       </c>
-      <c r="D22" s="99">
+      <c r="D22" s="41">
         <v>2.1391</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="43">
         <v>16.319600000000001</v>
       </c>
-      <c r="F22" s="99">
+      <c r="F22" s="41">
         <v>49.610599999999998</v>
       </c>
-      <c r="G22" s="99">
+      <c r="G22" s="41">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="H22" s="99">
+      <c r="H22" s="41">
         <v>94.080299999999994</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98">
+      <c r="A23" s="82">
         <v>14</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="99">
+      <c r="B23" s="82"/>
+      <c r="C23" s="41">
         <v>0.49349999999999999</v>
       </c>
-      <c r="D23" s="99">
+      <c r="D23" s="41">
         <v>1.4902</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="43">
         <v>27.081499999999998</v>
       </c>
-      <c r="F23" s="99">
+      <c r="F23" s="41">
         <v>34.981099999999998</v>
       </c>
-      <c r="G23" s="99">
+      <c r="G23" s="41">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H23" s="99">
+      <c r="H23" s="41">
         <v>94.080299999999994</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98">
+      <c r="A24" s="82">
         <v>15</v>
       </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="99">
+      <c r="B24" s="82"/>
+      <c r="C24" s="41">
         <v>0.71540000000000004</v>
       </c>
-      <c r="D24" s="99">
+      <c r="D24" s="41">
         <v>1.028</v>
       </c>
-      <c r="E24" s="101">
+      <c r="E24" s="43">
         <v>39.197600000000001</v>
       </c>
-      <c r="F24" s="99">
+      <c r="F24" s="41">
         <v>24.6172</v>
       </c>
-      <c r="G24" s="99">
+      <c r="G24" s="41">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="H24" s="99">
+      <c r="H24" s="41">
         <v>94.080299999999994</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="98">
+      <c r="A25" s="82">
         <v>16</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="99">
+      <c r="B25" s="82"/>
+      <c r="C25" s="41">
         <v>1.0222</v>
       </c>
-      <c r="D25" s="99">
+      <c r="D25" s="41">
         <v>0.71940000000000004</v>
       </c>
-      <c r="E25" s="101">
+      <c r="E25" s="43">
         <v>48.812399999999997</v>
       </c>
-      <c r="F25" s="99">
+      <c r="F25" s="41">
         <v>17.328499999999998</v>
       </c>
-      <c r="G25" s="99">
+      <c r="G25" s="41">
         <v>4.24E-2</v>
       </c>
-      <c r="H25" s="99">
+      <c r="H25" s="41">
         <v>93.7864</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="98">
+      <c r="A26" s="82">
         <v>17</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="99">
+      <c r="B26" s="82"/>
+      <c r="C26" s="41">
         <v>1.4581</v>
       </c>
-      <c r="D26" s="99">
+      <c r="D26" s="41">
         <v>0.50429999999999997</v>
       </c>
-      <c r="E26" s="101">
+      <c r="E26" s="43">
         <v>56.814799999999998</v>
       </c>
-      <c r="F26" s="99">
+      <c r="F26" s="41">
         <v>12.205500000000001</v>
       </c>
-      <c r="G26" s="99">
+      <c r="G26" s="41">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="H26" s="99">
+      <c r="H26" s="41">
         <v>93.288200000000003</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98">
+      <c r="A27" s="82">
         <v>18</v>
       </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="99">
+      <c r="B27" s="82"/>
+      <c r="C27" s="41">
         <v>2.0951</v>
       </c>
-      <c r="D27" s="99">
+      <c r="D27" s="41">
         <v>0.35099999999999998</v>
       </c>
-      <c r="E27" s="101">
+      <c r="E27" s="43">
         <v>64.286299999999997</v>
       </c>
-      <c r="F27" s="99">
+      <c r="F27" s="41">
         <v>8.5958000000000006</v>
       </c>
-      <c r="G27" s="99">
+      <c r="G27" s="41">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="H27" s="99">
+      <c r="H27" s="41">
         <v>92.676599999999993</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="98">
+      <c r="A28" s="82">
         <v>19</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="99">
+      <c r="B28" s="82"/>
+      <c r="C28" s="41">
         <v>2.9752000000000001</v>
       </c>
-      <c r="D28" s="99">
+      <c r="D28" s="41">
         <v>0.2472</v>
       </c>
-      <c r="E28" s="101">
+      <c r="E28" s="43">
         <v>70.7667</v>
       </c>
-      <c r="F28" s="99">
+      <c r="F28" s="41">
         <v>6.0758999999999999</v>
       </c>
-      <c r="G28" s="99">
+      <c r="G28" s="41">
         <v>0.121</v>
       </c>
-      <c r="H28" s="99">
+      <c r="H28" s="41">
         <v>91.899600000000007</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98">
+      <c r="A29" s="82">
         <v>20</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="99">
+      <c r="B29" s="82"/>
+      <c r="C29" s="41">
         <v>4.2237</v>
       </c>
-      <c r="D29" s="99">
+      <c r="D29" s="41">
         <v>0.1741</v>
       </c>
-      <c r="E29" s="101">
+      <c r="E29" s="43">
         <v>76.165400000000005</v>
       </c>
-      <c r="F29" s="99">
+      <c r="F29" s="41">
         <v>4.2877000000000001</v>
       </c>
-      <c r="G29" s="99">
+      <c r="G29" s="41">
         <v>0.17150000000000001</v>
       </c>
-      <c r="H29" s="99">
+      <c r="H29" s="41">
         <v>90.984999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="98">
+      <c r="A30" s="82">
         <v>21</v>
       </c>
-      <c r="B30" s="98"/>
-      <c r="C30" s="99">
+      <c r="B30" s="82"/>
+      <c r="C30" s="41">
         <v>6.0103999999999997</v>
       </c>
-      <c r="D30" s="99">
+      <c r="D30" s="41">
         <v>0.12239999999999999</v>
       </c>
-      <c r="E30" s="101">
+      <c r="E30" s="43">
         <v>80.558300000000003</v>
       </c>
-      <c r="F30" s="99">
+      <c r="F30" s="41">
         <v>3.0209000000000001</v>
       </c>
-      <c r="G30" s="99">
+      <c r="G30" s="41">
         <v>0.24340000000000001</v>
       </c>
-      <c r="H30" s="99">
+      <c r="H30" s="41">
         <v>89.890500000000003</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="98">
+      <c r="A31" s="82">
         <v>22</v>
       </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="99">
+      <c r="B31" s="82"/>
+      <c r="C31" s="41">
         <v>8.5493000000000006</v>
       </c>
-      <c r="D31" s="99">
+      <c r="D31" s="41">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E31" s="101">
+      <c r="E31" s="43">
         <v>84.144400000000005</v>
       </c>
-      <c r="F31" s="99">
+      <c r="F31" s="41">
         <v>2.1324000000000001</v>
       </c>
-      <c r="G31" s="99">
+      <c r="G31" s="41">
         <v>0.34489999999999998</v>
       </c>
-      <c r="H31" s="99">
+      <c r="H31" s="41">
         <v>88.604500000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="98">
+      <c r="A32" s="82">
         <v>23</v>
       </c>
-      <c r="B32" s="98"/>
-      <c r="C32" s="99">
+      <c r="B32" s="82"/>
+      <c r="C32" s="41">
         <v>12.160299999999999</v>
       </c>
-      <c r="D32" s="99">
+      <c r="D32" s="41">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="E32" s="101">
+      <c r="E32" s="43">
         <v>87.006200000000007</v>
       </c>
-      <c r="F32" s="99">
+      <c r="F32" s="41">
         <v>1.5168999999999999</v>
       </c>
-      <c r="G32" s="99">
+      <c r="G32" s="41">
         <v>0.48480000000000001</v>
       </c>
-      <c r="H32" s="99">
+      <c r="H32" s="41">
         <v>87.131600000000006</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="98">
+      <c r="A33" s="82">
         <v>24</v>
       </c>
-      <c r="B33" s="98"/>
-      <c r="C33" s="99">
+      <c r="B33" s="82"/>
+      <c r="C33" s="41">
         <v>17.273099999999999</v>
       </c>
-      <c r="D33" s="99">
+      <c r="D33" s="41">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="E33" s="101">
+      <c r="E33" s="43">
         <v>89.270099999999999</v>
       </c>
-      <c r="F33" s="99">
+      <c r="F33" s="41">
         <v>1.0650999999999999</v>
       </c>
-      <c r="G33" s="99">
+      <c r="G33" s="41">
         <v>0.6905</v>
       </c>
-      <c r="H33" s="99">
+      <c r="H33" s="41">
         <v>85.462400000000002</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="98">
+      <c r="A34" s="82">
         <v>25</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99">
+      <c r="B34" s="82"/>
+      <c r="C34" s="41">
         <v>24.534700000000001</v>
       </c>
-      <c r="D34" s="99">
+      <c r="D34" s="41">
         <v>0.03</v>
       </c>
-      <c r="E34" s="101">
+      <c r="E34" s="43">
         <v>91.031300000000002</v>
       </c>
-      <c r="F34" s="99">
+      <c r="F34" s="41">
         <v>0.76039999999999996</v>
       </c>
-      <c r="G34" s="99">
+      <c r="G34" s="41">
         <v>0.96719999999999995</v>
       </c>
-      <c r="H34" s="99">
+      <c r="H34" s="41">
         <v>83.626900000000006</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="98">
+      <c r="A35" s="82">
         <v>26</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="99">
+      <c r="B35" s="82"/>
+      <c r="C35" s="41">
         <v>34.8474</v>
       </c>
-      <c r="D35" s="99">
+      <c r="D35" s="41">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="E35" s="101">
+      <c r="E35" s="43">
         <v>92.260599999999997</v>
       </c>
-      <c r="F35" s="99">
+      <c r="F35" s="41">
         <v>0.53690000000000004</v>
       </c>
-      <c r="G35" s="99">
+      <c r="G35" s="41">
         <v>1.3695999999999999</v>
       </c>
-      <c r="H35" s="99">
+      <c r="H35" s="41">
         <v>81.6905</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="98">
+      <c r="A36" s="82">
         <v>27</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="99">
+      <c r="B36" s="82"/>
+      <c r="C36" s="41">
         <v>49.5045</v>
       </c>
-      <c r="D36" s="99">
+      <c r="D36" s="41">
         <v>1.49E-2</v>
       </c>
-      <c r="E36" s="101">
+      <c r="E36" s="43">
         <v>92.961699999999993</v>
       </c>
-      <c r="F36" s="99">
+      <c r="F36" s="41">
         <v>0.38400000000000001</v>
       </c>
-      <c r="G36" s="99">
+      <c r="G36" s="41">
         <v>1.9151</v>
       </c>
-      <c r="H36" s="99">
+      <c r="H36" s="41">
         <v>79.637100000000004</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="98">
+      <c r="A37" s="82">
         <v>28</v>
       </c>
-      <c r="B37" s="98"/>
-      <c r="C37" s="99">
+      <c r="B37" s="82"/>
+      <c r="C37" s="41">
         <v>70.326599999999999</v>
       </c>
-      <c r="D37" s="99">
+      <c r="D37" s="41">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="E37" s="101">
+      <c r="E37" s="43">
         <v>93.102699999999999</v>
       </c>
-      <c r="F37" s="99">
+      <c r="F37" s="41">
         <v>0.27950000000000003</v>
       </c>
-      <c r="G37" s="99">
+      <c r="G37" s="41">
         <v>2.6309</v>
       </c>
-      <c r="H37" s="99">
+      <c r="H37" s="41">
         <v>77.561000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="98">
+      <c r="A38" s="82">
         <v>29</v>
       </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="99">
+      <c r="B38" s="82"/>
+      <c r="C38" s="41">
         <v>99.958500000000001</v>
       </c>
-      <c r="D38" s="99">
+      <c r="D38" s="41">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="E38" s="101">
+      <c r="E38" s="43">
         <v>93.292299999999997</v>
       </c>
-      <c r="F38" s="99">
+      <c r="F38" s="41">
         <v>0.15459999999999999</v>
       </c>
-      <c r="G38" s="99">
+      <c r="G38" s="41">
         <v>4.7557999999999998</v>
       </c>
-      <c r="H38" s="99">
+      <c r="H38" s="41">
         <v>73.948800000000006</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
@@ -8383,28 +8378,30 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8423,32 +8420,32 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="97" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="91"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="98"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -8611,14 +8608,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8651,28 +8648,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="101" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8743,13 +8740,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="6">
